--- a/MyEPA/FileDatas/Template/(範本)簡報產製4_環境清理機具.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製4_環境清理機具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9B3593-1CD0-4674-80E9-F8D8DA44CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FC73E-C17F-4BA8-A676-ACEBB7405050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -385,6 +385,28 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>合計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>A01_</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="標楷體"/>
@@ -393,8 +415,18 @@
       </rPr>
       <t>子母式垃圾車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>A02_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -405,8 +437,18 @@
       </rPr>
       <t>密封式壓縮垃圾車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>A03_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -417,8 +459,18 @@
       </rPr>
       <t>框式垃圾車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B01_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -429,8 +481,18 @@
       </rPr>
       <t>水肥車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B02_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -441,8 +503,18 @@
       </rPr>
       <t>抓斗車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B03_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -453,8 +525,18 @@
       </rPr>
       <t>挖土機</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B04_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -465,8 +547,12 @@
       </rPr>
       <t>消毒車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B05_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -515,8 +601,18 @@
       </rPr>
       <t>街車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B06_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -565,8 +661,18 @@
       </rPr>
       <t>車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B07_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -605,8 +711,18 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B08_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -655,8 +771,18 @@
       </rPr>
       <t>回收垃圾車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B09_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -667,8 +793,18 @@
       </rPr>
       <t>轉運車</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>B10_</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -679,19 +815,7 @@
       </rPr>
       <t>推土機</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>合計</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -742,12 +866,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFB0B05"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -795,6 +913,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="5">
@@ -880,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,43 +1014,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1271,1084 +1386,1084 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.90625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10" customWidth="1"/>
-    <col min="3" max="7" width="9.36328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10" customWidth="1"/>
-    <col min="9" max="23" width="9.36328125" style="10" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="31.90625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" customWidth="1"/>
+    <col min="3" max="7" width="9.36328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7" customWidth="1"/>
+    <col min="9" max="23" width="9.36328125" style="7" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2</v>
-      </c>
-      <c r="T3" s="1">
-        <v>2</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>2</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2">
-        <v>138</v>
-      </c>
-      <c r="C4" s="2">
-        <v>441</v>
-      </c>
-      <c r="D4" s="2">
-        <v>588</v>
-      </c>
-      <c r="E4" s="2">
-        <v>250</v>
-      </c>
-      <c r="F4" s="2">
-        <v>94</v>
-      </c>
-      <c r="G4" s="2">
-        <v>138</v>
-      </c>
-      <c r="H4" s="2">
-        <v>441</v>
-      </c>
-      <c r="I4" s="2">
-        <v>588</v>
-      </c>
-      <c r="J4" s="2">
-        <v>250</v>
-      </c>
-      <c r="K4" s="2">
-        <v>94</v>
-      </c>
-      <c r="L4" s="2">
-        <v>441</v>
-      </c>
-      <c r="M4" s="2">
-        <v>588</v>
-      </c>
-      <c r="N4" s="2">
-        <v>250</v>
-      </c>
-      <c r="O4" s="2">
-        <v>94</v>
-      </c>
-      <c r="P4" s="2">
-        <v>105</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>45</v>
-      </c>
-      <c r="R4" s="2">
-        <v>250</v>
-      </c>
-      <c r="S4" s="2">
-        <v>250</v>
-      </c>
-      <c r="T4" s="2">
-        <v>250</v>
-      </c>
-      <c r="U4" s="2">
-        <v>94</v>
-      </c>
-      <c r="V4" s="2">
-        <v>105</v>
-      </c>
-      <c r="W4" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>4</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>4</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>15</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>5</v>
-      </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>64</v>
-      </c>
-      <c r="J7" s="3">
-        <v>13</v>
-      </c>
-      <c r="K7" s="3">
-        <v>13</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>64</v>
-      </c>
-      <c r="N7" s="3">
-        <v>13</v>
-      </c>
-      <c r="O7" s="3">
-        <v>13</v>
-      </c>
-      <c r="P7" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>3</v>
-      </c>
-      <c r="R7" s="3">
-        <v>13</v>
-      </c>
-      <c r="S7" s="3">
-        <v>13</v>
-      </c>
-      <c r="T7" s="3">
-        <v>13</v>
-      </c>
-      <c r="U7" s="3">
-        <v>13</v>
-      </c>
-      <c r="V7" s="3">
-        <v>7</v>
-      </c>
-      <c r="W7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2">
-        <v>13</v>
-      </c>
-      <c r="N8" s="2">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2">
-        <v>24</v>
-      </c>
-      <c r="P8" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>8</v>
-      </c>
-      <c r="R8" s="2">
-        <v>5</v>
-      </c>
-      <c r="S8" s="2">
-        <v>5</v>
-      </c>
-      <c r="T8" s="2">
-        <v>5</v>
-      </c>
-      <c r="U8" s="2">
-        <v>24</v>
-      </c>
-      <c r="V8" s="2">
-        <v>17</v>
-      </c>
-      <c r="W8" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3">
-        <v>34</v>
-      </c>
-      <c r="I9" s="3">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>34</v>
-      </c>
-      <c r="M9" s="3">
-        <v>14</v>
-      </c>
-      <c r="N9" s="3">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2">
-        <v>61</v>
-      </c>
-      <c r="J10" s="2">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>18</v>
-      </c>
-      <c r="M10" s="2">
-        <v>61</v>
-      </c>
-      <c r="N10" s="2">
-        <v>4</v>
-      </c>
-      <c r="O10" s="2">
-        <v>2</v>
-      </c>
-      <c r="P10" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>4</v>
-      </c>
-      <c r="S10" s="2">
-        <v>4</v>
-      </c>
-      <c r="T10" s="2">
-        <v>4</v>
-      </c>
-      <c r="U10" s="2">
-        <v>2</v>
-      </c>
-      <c r="V10" s="2">
-        <v>6</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3">
-        <v>78</v>
-      </c>
-      <c r="E11" s="3">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3">
-        <v>78</v>
-      </c>
-      <c r="J11" s="3">
-        <v>14</v>
-      </c>
-      <c r="K11" s="3">
-        <v>9</v>
-      </c>
-      <c r="L11" s="3">
-        <v>18</v>
-      </c>
-      <c r="M11" s="3">
-        <v>78</v>
-      </c>
-      <c r="N11" s="3">
-        <v>14</v>
-      </c>
-      <c r="O11" s="3">
-        <v>9</v>
-      </c>
-      <c r="P11" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>14</v>
-      </c>
-      <c r="S11" s="3">
-        <v>14</v>
-      </c>
-      <c r="T11" s="3">
-        <v>14</v>
-      </c>
-      <c r="U11" s="3">
-        <v>9</v>
-      </c>
-      <c r="V11" s="3">
-        <v>5</v>
-      </c>
-      <c r="W11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2">
-        <v>70</v>
-      </c>
-      <c r="E12" s="2">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2">
-        <v>65</v>
-      </c>
-      <c r="I12" s="2">
-        <v>70</v>
-      </c>
-      <c r="J12" s="2">
-        <v>27</v>
-      </c>
-      <c r="K12" s="2">
-        <v>20</v>
-      </c>
-      <c r="L12" s="2">
-        <v>65</v>
-      </c>
-      <c r="M12" s="2">
-        <v>70</v>
-      </c>
-      <c r="N12" s="2">
-        <v>27</v>
-      </c>
-      <c r="O12" s="2">
-        <v>20</v>
-      </c>
-      <c r="P12" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>14</v>
-      </c>
-      <c r="R12" s="2">
-        <v>27</v>
-      </c>
-      <c r="S12" s="2">
-        <v>27</v>
-      </c>
-      <c r="T12" s="2">
-        <v>27</v>
-      </c>
-      <c r="U12" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" s="2">
-        <v>21</v>
-      </c>
-      <c r="W12" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3">
-        <v>426</v>
-      </c>
-      <c r="D13" s="3">
-        <v>392</v>
-      </c>
-      <c r="E13" s="3">
-        <v>202</v>
-      </c>
-      <c r="F13" s="3">
-        <v>88</v>
-      </c>
-      <c r="G13" s="3">
-        <v>137</v>
-      </c>
-      <c r="H13" s="3">
-        <v>426</v>
-      </c>
-      <c r="I13" s="3">
-        <v>392</v>
-      </c>
-      <c r="J13" s="3">
-        <v>202</v>
-      </c>
-      <c r="K13" s="3">
-        <v>88</v>
-      </c>
-      <c r="L13" s="3">
-        <v>426</v>
-      </c>
-      <c r="M13" s="3">
-        <v>392</v>
-      </c>
-      <c r="N13" s="3">
-        <v>202</v>
-      </c>
-      <c r="O13" s="3">
-        <v>88</v>
-      </c>
-      <c r="P13" s="3">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>63</v>
-      </c>
-      <c r="R13" s="3">
-        <v>202</v>
-      </c>
-      <c r="S13" s="3">
-        <v>202</v>
-      </c>
-      <c r="T13" s="3">
-        <v>202</v>
-      </c>
-      <c r="U13" s="3">
-        <v>88</v>
-      </c>
-      <c r="V13" s="3">
-        <v>120</v>
-      </c>
-      <c r="W13" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>3</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2</v>
-      </c>
-      <c r="N14" s="2">
-        <v>3</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>3</v>
-      </c>
-      <c r="S14" s="2">
-        <v>3</v>
-      </c>
-      <c r="T14" s="2">
-        <v>3</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2</v>
-      </c>
-      <c r="P15" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2</v>
-      </c>
-      <c r="V15" s="3">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4">
-        <v>357</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1039</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1305</v>
-      </c>
-      <c r="E16" s="6">
-        <v>526</v>
-      </c>
-      <c r="F16" s="4">
-        <v>259</v>
-      </c>
-      <c r="G16" s="4">
-        <v>357</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1039</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1305</v>
-      </c>
-      <c r="J16" s="6">
-        <v>526</v>
-      </c>
-      <c r="K16" s="4">
-        <v>259</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1039</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1305</v>
-      </c>
-      <c r="N16" s="6">
-        <v>526</v>
-      </c>
-      <c r="O16" s="4">
-        <v>259</v>
-      </c>
-      <c r="P16" s="6">
-        <v>288</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>140</v>
-      </c>
-      <c r="R16" s="6">
-        <v>526</v>
-      </c>
-      <c r="S16" s="6">
-        <v>526</v>
-      </c>
-      <c r="T16" s="6">
-        <v>526</v>
-      </c>
-      <c r="U16" s="4">
-        <v>259</v>
-      </c>
-      <c r="V16" s="6">
-        <v>288</v>
-      </c>
-      <c r="W16" s="4">
-        <v>140</v>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MyEPA/FileDatas/Template/(範本)簡報產製4_環境清理機具.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製4_環境清理機具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FC73E-C17F-4BA8-A676-ACEBB7405050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6788382-392D-41B4-AA81-37184805734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577DC1DE-9826-425B-AB97-5D5014958F5E}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2400,69 +2400,91 @@
         <v>24</v>
       </c>
       <c r="B16" s="3">
+        <f>SUM(B3:B15)</f>
         <v>0</v>
       </c>
       <c r="C16" s="3">
+        <f t="shared" ref="C16:W16" si="0">SUM(C3:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/MyEPA/FileDatas/Template/(範本)簡報產製4_環境清理機具.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製4_環境清理機具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6788382-392D-41B4-AA81-37184805734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102FBC4A-E5D9-426B-82F3-E2E49EA8013A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -1380,17 +1380,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577DC1DE-9826-425B-AB97-5D5014958F5E}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.90625" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="7" width="9.36328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7" customWidth="1"/>
-    <col min="9" max="23" width="9.36328125" style="7" customWidth="1"/>
+    <col min="3" max="8" width="9.36328125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7" customWidth="1"/>
+    <col min="10" max="23" width="9.36328125" style="7" customWidth="1"/>
     <col min="24" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1399,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
@@ -1415,43 +1415,43 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>16</v>
@@ -1463,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>20</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(E3:E15)</f>
         <v>0</v>
       </c>
       <c r="F16" s="3">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(U3:U15)</f>
         <v>0</v>
       </c>
       <c r="V16" s="3">
